--- a/results/pvalue_SIDER_rare_DGI_AUPR+AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_DGI_AUPR+AUROC.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23.221</t>
+          <t>12.857</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25.858</t>
+          <t>13.067</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.402</t>
+          <t>6.224</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.144</t>
+          <t>11.877</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17.625</t>
+          <t>17.609</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17.73</t>
+          <t>17.715</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.406</t>
+          <t>14.382</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.194</t>
+          <t>20.171</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.187</t>
+          <t>14.347</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
